--- a/langs.xlsx
+++ b/langs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="498">
   <si>
     <t>Описание реплики</t>
   </si>
@@ -430,22 +430,31 @@
     <t>Nous avons notifié la contrepartie et attendons la réponse</t>
   </si>
   <si>
-    <t>Уведомление контрагента. Скобки меняет на имя продавца</t>
-  </si>
-  <si>
-    <t>CPNotification</t>
-  </si>
-  <si>
-    <t>You got new escrow exchange offer from @{}:</t>
-  </si>
-  <si>
-    <t>Recibió una nueva oferta de intercambio de depósito en garantía de @ {}:</t>
-  </si>
-  <si>
-    <t>Você recebeu uma nova oferta de troca de garantia de @ {}:</t>
-  </si>
-  <si>
-    <t>Vous avez reçu une nouvelle offre d'échange d'entiercement de @{} :</t>
+    <t>Уведомление контрагента. Скобки меняет на имя продавца и описание операции</t>
+  </si>
+  <si>
+    <t>CPNotificationChat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You got new escrow exchange offer from @{}:
+{}
+If you agree, you will be invited to chat with your counterparty.
+</t>
+  </si>
+  <si>
+    <t>CPNotificationNoChat</t>
+  </si>
+  <si>
+    <t>You got new escrow exchange offer from @{}:
+{} 
+If you agree, the exchange will be made automatically.</t>
+  </si>
+  <si>
+    <t>CPNotificationOrder</t>
+  </si>
+  <si>
+    <t>Your {} order was accepted. @{} offers {} {}
+If you agree, the exchange will be made automatically.</t>
   </si>
   <si>
     <t>Описание операции. Меняет скобки на имя пользователя и описание операции</t>
@@ -684,13 +693,7 @@
     <t>OrdersView</t>
   </si>
   <si>
-    <t>Orders page {} out of {}</t>
-  </si>
-  <si>
-    <t>Página de pedidos {} de {}</t>
-  </si>
-  <si>
-    <t>Page de commandes {} sur {}</t>
+    <t>Page {} out of {}</t>
   </si>
   <si>
     <t>Текст кнопки создания птп ордера</t>
@@ -772,19 +775,7 @@
   </si>
   <si>
     <t>{}
-Do you want to delete order?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{}
-¿Quieres eliminar el pedido? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{}
-Quer excluir o pedido? </t>
-  </si>
-  <si>
-    <t>{}
-Voulez-vous supprimer la commande ?</t>
+Do you want to delete it?</t>
   </si>
   <si>
     <t>Уведомление о успешном удалении</t>
@@ -793,16 +784,7 @@
     <t>OrderDeleted</t>
   </si>
   <si>
-    <t>Order deleted</t>
-  </si>
-  <si>
-    <t>Pedido eliminado</t>
-  </si>
-  <si>
-    <t>Pedido excluído</t>
-  </si>
-  <si>
-    <t>Commande supprimée</t>
+    <t>Offer deleted</t>
   </si>
   <si>
     <t xml:space="preserve">Просьба ввести сумму предложение для птп </t>
@@ -841,40 +823,43 @@
     <t>Votre {} commande a été acceptée. @{} des offres {} {}</t>
   </si>
   <si>
+    <t>Формат вывода ордера</t>
+  </si>
+  <si>
+    <t>OrderFormat</t>
+  </si>
+  <si>
+    <t>@{} sell {} {} for at least {} {}</t>
+  </si>
+  <si>
+    <t>@ {} vender {} {} por al menos {} {}</t>
+  </si>
+  <si>
+    <t>@ {} venda {} {} por pelo menos {} {}</t>
+  </si>
+  <si>
+    <t>@{} vendre {} {} pour au moins {} {}</t>
+  </si>
+  <si>
     <t>Сообщение, если нет ордеров</t>
   </si>
   <si>
-    <t>OrderFormat</t>
-  </si>
-  <si>
-    <t>@{} sell {} {} for at least {} {}</t>
-  </si>
-  <si>
-    <t>@ {} vender {} {} por al menos {} {}</t>
-  </si>
-  <si>
-    <t>@ {} venda {} {} por pelo menos {} {}</t>
-  </si>
-  <si>
-    <t>@{} vendre {} {} pour au moins {} {}</t>
+    <t>NoOrders</t>
+  </si>
+  <si>
+    <t>There is no orders now</t>
+  </si>
+  <si>
+    <t>No hay pedidos ahora</t>
+  </si>
+  <si>
+    <t>Não há pedidos agora</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de commandes maintenant</t>
   </si>
   <si>
     <t>Текст меню кошелька</t>
-  </si>
-  <si>
-    <t>NoOrders</t>
-  </si>
-  <si>
-    <t>There is not orders now</t>
-  </si>
-  <si>
-    <t>No hay pedidos ahora</t>
-  </si>
-  <si>
-    <t>Não há pedidos agora</t>
-  </si>
-  <si>
-    <t>Il n'y a pas de commandes maintenant</t>
   </si>
   <si>
     <t>WalletMenu</t>
@@ -1463,22 +1448,97 @@
     <t>Vendre</t>
   </si>
   <si>
+    <t>Формат вывода адреса для ввода крипты</t>
+  </si>
+  <si>
+    <t>CryptoDepositAddress</t>
+  </si>
+  <si>
+    <t>Coin: {}
+Address: {}
+Network: {}</t>
+  </si>
+  <si>
+    <t>Address: {}
+Coin: {}
+Network: {}</t>
+  </si>
+  <si>
+    <t>Описание типов ескроу обмена</t>
+  </si>
+  <si>
+    <t>EscrowExplanation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select escrow type
+*types description*
+</t>
+  </si>
+  <si>
+    <t>Кнопка ескроу обмена с использованием внешних счетов</t>
+  </si>
+  <si>
+    <t>ChatEscrow</t>
+  </si>
+  <si>
+    <t>Кнопка ескроу обмена внутри системы</t>
+  </si>
+  <si>
+    <t>NoChatEscrow</t>
+  </si>
+  <si>
+    <t>Выбор валюты птп ордера</t>
+  </si>
+  <si>
+    <t>SelectOrderSellCur</t>
+  </si>
+  <si>
+    <t>Select order sell currency</t>
+  </si>
+  <si>
+    <t>SelectOrderBuyCur</t>
+  </si>
+  <si>
+    <t>Select order buy currency</t>
+  </si>
+  <si>
+    <t>Предложение пользователя на птп ордер</t>
+  </si>
+  <si>
+    <t>YourOffer</t>
+  </si>
+  <si>
+    <t>You offer {} {}</t>
+  </si>
+  <si>
+    <t>Кнопка удаления старых предложений обмена</t>
+  </si>
+  <si>
+    <t>DeleteEscrow</t>
+  </si>
+  <si>
+    <t>Delete one of your old escrow offers</t>
+  </si>
+  <si>
+    <t>Сообщение, если нет старых предложений</t>
+  </si>
+  <si>
+    <t>NoOffers</t>
+  </si>
+  <si>
+    <t>You haven't unfinished exchanges</t>
+  </si>
+  <si>
     <t>BTC</t>
   </si>
   <si>
-    <t>Тут будут BTC реквезиты</t>
+    <t>Будет получен из binance</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Тут будут ETH реквезиты</t>
-  </si>
-  <si>
     <t>USDT</t>
-  </si>
-  <si>
-    <t>Тут будут USDT реквезиты</t>
   </si>
   <si>
     <t>BRL</t>
@@ -1558,7 +1618,7 @@
       <name val="&quot;Calibri&quot;"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1571,6 +1631,18 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1578,7 +1650,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1598,8 +1670,35 @@
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
@@ -2277,1262 +2376,1407 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="C24" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="D24" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="C25" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>144</v>
+      <c r="D25" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="E28" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>169</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>216</v>
+        <v>202</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>222</v>
+        <v>208</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>237</v>
+        <v>223</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>252</v>
+        <v>235</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>258</v>
+        <v>238</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>265</v>
+      <c r="A48" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>272</v>
+        <v>253</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>282</v>
+        <v>265</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="B51" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="B53" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>333</v>
+        <v>314</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>345</v>
+        <v>326</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>428</v>
+        <v>410</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>447</v>
+        <v>421</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B82" s="1" t="s">
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="E85" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="F85" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="B86" s="8" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="C86" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="A87" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="A88" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+      <c r="A89" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+      <c r="B90" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="A91" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+      <c r="A92" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="A93" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="C94" s="3"/>
@@ -8978,12 +9222,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D75"/>
-    <hyperlink r:id="rId2" ref="E75"/>
-    <hyperlink r:id="rId3" ref="F75"/>
-    <hyperlink r:id="rId4" ref="D77"/>
-    <hyperlink r:id="rId5" ref="E77"/>
-    <hyperlink r:id="rId6" ref="F77"/>
+    <hyperlink r:id="rId1" ref="D77"/>
+    <hyperlink r:id="rId2" ref="E77"/>
+    <hyperlink r:id="rId3" ref="F77"/>
+    <hyperlink r:id="rId4" ref="D79"/>
+    <hyperlink r:id="rId5" ref="E79"/>
+    <hyperlink r:id="rId6" ref="F79"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
@@ -9003,83 +9247,83 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>462</v>
+      <c r="A1" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>464</v>
+      <c r="A2" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>466</v>
+      <c r="A3" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>468</v>
+      <c r="A4" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>470</v>
+      <c r="A5" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>472</v>
+      <c r="A6" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>474</v>
+      <c r="A7" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>476</v>
+      <c r="A8" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>478</v>
+      <c r="A9" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>480</v>
+      <c r="A10" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/langs.xlsx
+++ b/langs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="501">
   <si>
     <t>Описание реплики</t>
   </si>
@@ -453,7 +453,7 @@
     <t>CPNotificationOrder</t>
   </si>
   <si>
-    <t>Your {} order was accepted. @{} offers {} {}
+    <t>Your {} order was accepted. @{} wants to buy {} {}
 If you agree, the exchange will be made automatically.</t>
   </si>
   <si>
@@ -793,16 +793,7 @@
     <t>OfferForOrder</t>
   </si>
   <si>
-    <t>Enter your offer sum (at least {}):</t>
-  </si>
-  <si>
-    <t>Ingrese la suma de su oferta (al menos {}):</t>
-  </si>
-  <si>
-    <t>Insira o valor da sua oferta (pelo menos {}):</t>
-  </si>
-  <si>
-    <t>Saisissez le montant de votre offre (au moins {}) :</t>
+    <t>Enter sum you want to buy ({} - {} {}):</t>
   </si>
   <si>
     <t>Уведомление о том, что кто то принял ваш птп. Меняет скобки на описание ордера, имя контрагента, и его предложение</t>
@@ -829,16 +820,10 @@
     <t>OrderFormat</t>
   </si>
   <si>
-    <t>@{} sell {} {} for at least {} {}</t>
-  </si>
-  <si>
-    <t>@ {} vender {} {} por al menos {} {}</t>
-  </si>
-  <si>
-    <t>@ {} venda {} {} por pelo menos {} {}</t>
-  </si>
-  <si>
-    <t>@{} vendre {} {} pour au moins {} {}</t>
+    <t>{} sell {}-{} {}, {} {} for each</t>
+  </si>
+  <si>
+    <t>@{} sell {}-{} {}, {} {} for each</t>
   </si>
   <si>
     <t>Сообщение, если нет ордеров</t>
@@ -1508,7 +1493,7 @@
     <t>YourOffer</t>
   </si>
   <si>
-    <t>You offer {} {}</t>
+    <t>You want to buy {} {}</t>
   </si>
   <si>
     <t>Кнопка удаления старых предложений обмена</t>
@@ -1527,6 +1512,33 @@
   </si>
   <si>
     <t>You haven't unfinished exchanges</t>
+  </si>
+  <si>
+    <t>MinTradeAmount</t>
+  </si>
+  <si>
+    <t>Please enter the minimum amount for one trade 
+Note: Let's say, you want to sell 1000 USDT and the minimum amount for one trade is 250 USDT. It means you will be matched with several other users who will buy from you not less than 250 USDT until the whole amount of 1000 USDT will be sold. There could be, for example, 4 trades each of them for 250 USDT or 2 trades for 550 USDT and 450 USDT</t>
+  </si>
+  <si>
+    <t>YourRate</t>
+  </si>
+  <si>
+    <t>Please enter your price – the amount of {1} you would like to receive for 1 {0}
+Current average market rate: 1 {0} = {2} {1}
+Note: The better price you offer, the faster your offer will be taken</t>
+  </si>
+  <si>
+    <t>ToBigAmount</t>
+  </si>
+  <si>
+    <t>To much value. Enter as a maximum {} {}</t>
+  </si>
+  <si>
+    <t>CounterpartyNotEnough</t>
+  </si>
+  <si>
+    <t>@{} has no enough money</t>
   </si>
   <si>
     <t>BTC</t>
@@ -2831,976 +2843,1020 @@
       <c r="B46" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>245</v>
+      <c r="D46" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="E47" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>257</v>
+      <c r="E48" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="B53" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>453</v>
-      </c>
       <c r="E84" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="16" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="B94" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="B95" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="D95" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="B96" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="D93" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+      <c r="C96" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+      <c r="B97" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="C98" s="3"/>
@@ -9248,82 +9304,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
